--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.93808033333333</v>
+        <v>2.882461666666666</v>
       </c>
       <c r="H2">
-        <v>122.814241</v>
+        <v>8.647385</v>
       </c>
       <c r="I2">
-        <v>0.9124277875416948</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="J2">
-        <v>0.9124277875416951</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9343656666666668</v>
+        <v>0.8658956666666665</v>
       </c>
       <c r="N2">
-        <v>2.803097</v>
+        <v>2.597687</v>
       </c>
       <c r="O2">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="P2">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="Q2">
-        <v>38.25113672270856</v>
+        <v>2.495911066499444</v>
       </c>
       <c r="R2">
-        <v>344.260230504377</v>
+        <v>22.463199598495</v>
       </c>
       <c r="S2">
-        <v>0.235711621065063</v>
+        <v>0.144442419515951</v>
       </c>
       <c r="T2">
-        <v>0.235711621065063</v>
+        <v>0.144442419515951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.93808033333333</v>
+        <v>2.882461666666666</v>
       </c>
       <c r="H3">
-        <v>122.814241</v>
+        <v>8.647385</v>
       </c>
       <c r="I3">
-        <v>0.9124277875416948</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="J3">
-        <v>0.9124277875416951</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.691215</v>
       </c>
       <c r="O3">
-        <v>0.3401838618471323</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="P3">
-        <v>0.3401838618471322</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="Q3">
-        <v>50.37041873253499</v>
+        <v>3.546595246975</v>
       </c>
       <c r="R3">
-        <v>453.3337685928149</v>
+        <v>31.919357222775</v>
       </c>
       <c r="S3">
-        <v>0.3103932084225685</v>
+        <v>0.2052472162941767</v>
       </c>
       <c r="T3">
-        <v>0.3103932084225685</v>
+        <v>0.2052472162941767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.93808033333333</v>
+        <v>2.882461666666666</v>
       </c>
       <c r="H4">
-        <v>122.814241</v>
+        <v>8.647385</v>
       </c>
       <c r="I4">
-        <v>0.9124277875416948</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="J4">
-        <v>0.9124277875416951</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3629676666666666</v>
+        <v>0.4220566666666667</v>
       </c>
       <c r="N4">
-        <v>1.088903</v>
+        <v>1.26617</v>
       </c>
       <c r="O4">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="P4">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="Q4">
-        <v>14.85919949640255</v>
+        <v>1.216562162827778</v>
       </c>
       <c r="R4">
-        <v>133.732795467623</v>
+        <v>10.94905946545</v>
       </c>
       <c r="S4">
-        <v>0.09156554029796696</v>
+        <v>0.07040442452016417</v>
       </c>
       <c r="T4">
-        <v>0.09156554029796696</v>
+        <v>0.07040442452016418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.93808033333333</v>
+        <v>2.882461666666666</v>
       </c>
       <c r="H5">
-        <v>122.814241</v>
+        <v>8.647385</v>
       </c>
       <c r="I5">
-        <v>0.9124277875416948</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="J5">
-        <v>0.9124277875416951</v>
+        <v>0.513165610165437</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.089144</v>
+        <v>0.5579403333333333</v>
       </c>
       <c r="N5">
-        <v>3.267432</v>
+        <v>1.673821</v>
       </c>
       <c r="O5">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="P5">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="Q5">
-        <v>44.58746456656799</v>
+        <v>1.608241623120555</v>
       </c>
       <c r="R5">
-        <v>401.287181099112</v>
+        <v>14.474174608085</v>
       </c>
       <c r="S5">
-        <v>0.2747574177560965</v>
+        <v>0.09307154983514511</v>
       </c>
       <c r="T5">
-        <v>0.2747574177560965</v>
+        <v>0.09307154983514511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.799447</v>
       </c>
       <c r="I6">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="J6">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9343656666666668</v>
+        <v>0.8658956666666665</v>
       </c>
       <c r="N6">
-        <v>2.803097</v>
+        <v>2.597687</v>
       </c>
       <c r="O6">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="P6">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="Q6">
-        <v>1.183357609706556</v>
+        <v>1.096641564343222</v>
       </c>
       <c r="R6">
-        <v>10.650218487359</v>
+        <v>9.869774079088998</v>
       </c>
       <c r="S6">
-        <v>0.007292100689860475</v>
+        <v>0.06346442508372431</v>
       </c>
       <c r="T6">
-        <v>0.007292100689860475</v>
+        <v>0.06346442508372432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.799447</v>
       </c>
       <c r="I7">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="J7">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.691215</v>
       </c>
       <c r="O7">
-        <v>0.3401838618471323</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="P7">
-        <v>0.3401838618471322</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="Q7">
         <v>1.558286195345</v>
@@ -883,10 +883,10 @@
         <v>14.024575758105</v>
       </c>
       <c r="S7">
-        <v>0.009602490191357392</v>
+        <v>0.09018054824750615</v>
       </c>
       <c r="T7">
-        <v>0.009602490191357392</v>
+        <v>0.09018054824750615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.799447</v>
       </c>
       <c r="I8">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="J8">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3629676666666666</v>
+        <v>0.4220566666666667</v>
       </c>
       <c r="N8">
-        <v>1.088903</v>
+        <v>1.26617</v>
       </c>
       <c r="O8">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="P8">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="Q8">
-        <v>0.4596921374045556</v>
+        <v>0.5345273119988889</v>
       </c>
       <c r="R8">
-        <v>4.137229236641</v>
+        <v>4.81074580799</v>
       </c>
       <c r="S8">
-        <v>0.002832720493615148</v>
+        <v>0.03093396206250377</v>
       </c>
       <c r="T8">
-        <v>0.002832720493615148</v>
+        <v>0.03093396206250378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.799447</v>
       </c>
       <c r="I9">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="J9">
-        <v>0.02822735369990139</v>
+        <v>0.2254722714492577</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.089144</v>
+        <v>0.5579403333333333</v>
       </c>
       <c r="N9">
-        <v>3.267432</v>
+        <v>1.673821</v>
       </c>
       <c r="O9">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="P9">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="Q9">
-        <v>1.379381634456</v>
+        <v>0.7066215752207776</v>
       </c>
       <c r="R9">
-        <v>12.414434710104</v>
+        <v>6.359594176986999</v>
       </c>
       <c r="S9">
-        <v>0.008500042325068374</v>
+        <v>0.04089333605552344</v>
       </c>
       <c r="T9">
-        <v>0.008500042325068376</v>
+        <v>0.04089333605552344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8051456666666666</v>
+        <v>0.8351260000000001</v>
       </c>
       <c r="H10">
-        <v>2.415437</v>
+        <v>2.505378</v>
       </c>
       <c r="I10">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="J10">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9343656666666668</v>
+        <v>0.8658956666666665</v>
       </c>
       <c r="N10">
-        <v>2.803097</v>
+        <v>2.597687</v>
       </c>
       <c r="O10">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="P10">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="Q10">
-        <v>0.7523004675987779</v>
+        <v>0.7231319845206666</v>
       </c>
       <c r="R10">
-        <v>6.770704208389</v>
+        <v>6.508187860686</v>
       </c>
       <c r="S10">
-        <v>0.004635835113376898</v>
+        <v>0.04184882020657509</v>
       </c>
       <c r="T10">
-        <v>0.004635835113376898</v>
+        <v>0.04184882020657509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8051456666666666</v>
+        <v>0.8351260000000001</v>
       </c>
       <c r="H11">
-        <v>2.415437</v>
+        <v>2.505378</v>
       </c>
       <c r="I11">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="J11">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.691215</v>
       </c>
       <c r="O11">
-        <v>0.3401838618471323</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="P11">
-        <v>0.3401838618471322</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="Q11">
-        <v>0.990655253995</v>
+        <v>1.02754320603</v>
       </c>
       <c r="R11">
-        <v>8.915897285954999</v>
+        <v>9.24788885427</v>
       </c>
       <c r="S11">
-        <v>0.006104627884095165</v>
+        <v>0.05946559107344845</v>
       </c>
       <c r="T11">
-        <v>0.006104627884095165</v>
+        <v>0.05946559107344845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8051456666666666</v>
+        <v>0.8351260000000001</v>
       </c>
       <c r="H12">
-        <v>2.415437</v>
+        <v>2.505378</v>
       </c>
       <c r="I12">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="J12">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3629676666666666</v>
+        <v>0.4220566666666667</v>
       </c>
       <c r="N12">
-        <v>1.088903</v>
+        <v>1.26617</v>
       </c>
       <c r="O12">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="P12">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="Q12">
-        <v>0.2922418439567778</v>
+        <v>0.3524704958066667</v>
       </c>
       <c r="R12">
-        <v>2.630176595611</v>
+        <v>3.17223446226</v>
       </c>
       <c r="S12">
-        <v>0.001800856253801222</v>
+        <v>0.02039803897889129</v>
       </c>
       <c r="T12">
-        <v>0.001800856253801222</v>
+        <v>0.0203980389788913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8051456666666666</v>
+        <v>0.8351260000000001</v>
       </c>
       <c r="H13">
-        <v>2.415437</v>
+        <v>2.505378</v>
       </c>
       <c r="I13">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="J13">
-        <v>0.0179450837289818</v>
+        <v>0.1486777598158359</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.089144</v>
+        <v>0.5579403333333333</v>
       </c>
       <c r="N13">
-        <v>3.267432</v>
+        <v>1.673821</v>
       </c>
       <c r="O13">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="P13">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="Q13">
-        <v>0.8769195719759999</v>
+        <v>0.4659504788153334</v>
       </c>
       <c r="R13">
-        <v>7.892276147783999</v>
+        <v>4.193554309338</v>
       </c>
       <c r="S13">
-        <v>0.005403764477708514</v>
+        <v>0.02696530955692111</v>
       </c>
       <c r="T13">
-        <v>0.005403764477708514</v>
+        <v>0.02696530955692111</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.857492</v>
+        <v>0.6329503333333334</v>
       </c>
       <c r="H14">
-        <v>5.572476</v>
+        <v>1.898851</v>
       </c>
       <c r="I14">
-        <v>0.04139977502942182</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="J14">
-        <v>0.04139977502942183</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9343656666666668</v>
+        <v>0.8658956666666665</v>
       </c>
       <c r="N14">
-        <v>2.803097</v>
+        <v>2.597687</v>
       </c>
       <c r="O14">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="P14">
-        <v>0.2583345490826492</v>
+        <v>0.281473303461206</v>
       </c>
       <c r="Q14">
-        <v>1.735576750908</v>
+        <v>0.5480689508485556</v>
       </c>
       <c r="R14">
-        <v>15.620190758172</v>
+        <v>4.932620557637</v>
       </c>
       <c r="S14">
-        <v>0.01069499221434881</v>
+        <v>0.03171763865495558</v>
       </c>
       <c r="T14">
-        <v>0.01069499221434881</v>
+        <v>0.03171763865495558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.857492</v>
+        <v>0.6329503333333334</v>
       </c>
       <c r="H15">
-        <v>5.572476</v>
+        <v>1.898851</v>
       </c>
       <c r="I15">
-        <v>0.04139977502942182</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="J15">
-        <v>0.04139977502942183</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.691215</v>
       </c>
       <c r="O15">
-        <v>0.3401838618471323</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="P15">
-        <v>0.3401838618471322</v>
+        <v>0.3999629207966763</v>
       </c>
       <c r="Q15">
-        <v>2.28546744426</v>
+        <v>0.7787852548850001</v>
       </c>
       <c r="R15">
-        <v>20.56920699834</v>
+        <v>7.009067293965</v>
       </c>
       <c r="S15">
-        <v>0.01408353534911119</v>
+        <v>0.04506956518154492</v>
       </c>
       <c r="T15">
-        <v>0.01408353534911119</v>
+        <v>0.04506956518154492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.857492</v>
+        <v>0.6329503333333334</v>
       </c>
       <c r="H16">
-        <v>5.572476</v>
+        <v>1.898851</v>
       </c>
       <c r="I16">
-        <v>0.04139977502942182</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="J16">
-        <v>0.04139977502942183</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3629676666666666</v>
+        <v>0.4220566666666667</v>
       </c>
       <c r="N16">
-        <v>1.088903</v>
+        <v>1.26617</v>
       </c>
       <c r="O16">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="P16">
-        <v>0.1003537392747179</v>
+        <v>0.1371963029585455</v>
       </c>
       <c r="Q16">
-        <v>0.6742095370919999</v>
+        <v>0.2671409078522223</v>
       </c>
       <c r="R16">
-        <v>6.067885833828</v>
+        <v>2.40426817067</v>
       </c>
       <c r="S16">
-        <v>0.004154622229334574</v>
+        <v>0.01545987739698629</v>
       </c>
       <c r="T16">
-        <v>0.004154622229334575</v>
+        <v>0.01545987739698629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.857492</v>
+        <v>0.6329503333333334</v>
       </c>
       <c r="H17">
-        <v>5.572476</v>
+        <v>1.898851</v>
       </c>
       <c r="I17">
-        <v>0.04139977502942182</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="J17">
-        <v>0.04139977502942183</v>
+        <v>0.1126843585694693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.089144</v>
+        <v>0.5579403333333333</v>
       </c>
       <c r="N17">
-        <v>3.267432</v>
+        <v>1.673821</v>
       </c>
       <c r="O17">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="P17">
-        <v>0.3011278497955007</v>
+        <v>0.1813674727835722</v>
       </c>
       <c r="Q17">
-        <v>2.023076266848</v>
+        <v>0.3531485199634444</v>
       </c>
       <c r="R17">
-        <v>18.207686401632</v>
+        <v>3.178336679671</v>
       </c>
       <c r="S17">
-        <v>0.01246662523662725</v>
+        <v>0.02043727733598252</v>
       </c>
       <c r="T17">
-        <v>0.01246662523662726</v>
+        <v>0.02043727733598251</v>
       </c>
     </row>
   </sheetData>
